--- a/DB 설계.xlsx
+++ b/DB 설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devick/Documents/git/vaiscan-box-web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9359D475-D387-0446-92EF-679B573BA9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0817A501-3115-1E40-B713-FEA2950A6E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{80A7F6B6-FFF1-48FA-9C01-E4EE0489C1B2}"/>
   </bookViews>
@@ -138,14 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,6 +201,14 @@
   </si>
   <si>
     <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,6 +766,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,20 +802,14 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="137" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B20" sqref="B20:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1164,10 +1164,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
@@ -1176,7 +1176,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -50314,9 +50314,9 @@
       </c>
     </row>
     <row r="4" spans="1:16384" customFormat="1">
-      <c r="B4" s="51"/>
-      <c r="C4" s="55" t="s">
-        <v>44</v>
+      <c r="B4" s="54"/>
+      <c r="C4" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -50329,12 +50329,12 @@
       </c>
     </row>
     <row r="5" spans="1:16384" customFormat="1">
-      <c r="B5" s="51"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>7</v>
@@ -50342,9 +50342,9 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:16384" customFormat="1">
-      <c r="B6" s="51"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>3</v>
@@ -50355,9 +50355,9 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:16384" customFormat="1">
-      <c r="B7" s="51"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>21</v>
@@ -50368,7 +50368,7 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:16384" customFormat="1" ht="18" thickBot="1">
-      <c r="B8" s="52"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="7" t="s">
         <v>1</v>
       </c>
@@ -50379,8 +50379,8 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:16384" customFormat="1" ht="18">
-      <c r="B9" s="41" t="s">
-        <v>26</v>
+      <c r="B9" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>6</v>
@@ -50392,11 +50392,11 @@
         <v>7</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:16384" customFormat="1">
-      <c r="B10" s="42"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
@@ -50409,7 +50409,7 @@
       <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:16384" customFormat="1">
-      <c r="B11" s="42"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="13" t="s">
         <v>23</v>
       </c>
@@ -50422,7 +50422,7 @@
       <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:16384" customFormat="1">
-      <c r="B12" s="42"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="13" t="s">
         <v>24</v>
       </c>
@@ -50433,7 +50433,7 @@
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:16384" customFormat="1">
-      <c r="B13" s="42"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="13" t="s">
         <v>15</v>
       </c>
@@ -50446,7 +50446,7 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:16384" customFormat="1">
-      <c r="B14" s="42"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
@@ -50457,7 +50457,7 @@
       <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:16384" customFormat="1">
-      <c r="B15" s="42"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="13" t="s">
         <v>25</v>
       </c>
@@ -50468,38 +50468,38 @@
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:16384" customFormat="1" ht="18">
-      <c r="B16" s="42"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="18">
-      <c r="B17" s="42"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="18">
-      <c r="B18" s="42"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>7</v>
@@ -50507,7 +50507,7 @@
       <c r="F18" s="15"/>
     </row>
     <row r="19" spans="2:6" ht="18" thickBot="1">
-      <c r="B19" s="43"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="16" t="s">
         <v>0</v>
       </c>
@@ -50520,29 +50520,29 @@
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="47" t="s">
-        <v>27</v>
+      <c r="B20" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="48"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>7</v>
@@ -50550,9 +50550,9 @@
       <c r="F21" s="34"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="49"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>21</v>
@@ -50561,9 +50561,9 @@
       <c r="F22" s="34"/>
     </row>
     <row r="23" spans="2:6" ht="18" thickBot="1">
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="35" t="s">
         <v>21</v>
@@ -50572,7 +50572,7 @@
       <c r="F23" s="37"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="39" t="s">
@@ -50585,11 +50585,11 @@
         <v>7</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="45"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="19" t="s">
         <v>19</v>
       </c>
@@ -50602,7 +50602,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="45"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="19" t="s">
         <v>14</v>
       </c>
@@ -50615,7 +50615,7 @@
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="45"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="19" t="s">
         <v>0</v>
       </c>
@@ -50628,7 +50628,7 @@
       <c r="F27" s="21"/>
     </row>
     <row r="28" spans="2:6" ht="18" thickBot="1">
-      <c r="B28" s="46"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="22" t="s">
         <v>16</v>
       </c>
